--- a/lp_tenant_importer_v2/samples/core_config.xlsx
+++ b/lp_tenant_importer_v2/samples/core_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Repo" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="800">
   <si>
     <t xml:space="preserve">repo_number</t>
   </si>
@@ -1415,9 +1415,6 @@
     <t xml:space="preserve">high</t>
   </si>
   <si>
-    <t xml:space="preserve">etudes</t>
-  </si>
-  <si>
     <t xml:space="preserve">max</t>
   </si>
   <si>
@@ -1601,9 +1598,6 @@
     <t xml:space="preserve">["10.109.234.1:5504/Repo-core-secu-verbose"]</t>
   </si>
   <si>
-    <t xml:space="preserve">securite</t>
-  </si>
-  <si>
     <t xml:space="preserve">5df8af7f03a0f351b1487c93</t>
   </si>
   <si>
@@ -1719,9 +1713,6 @@
   </si>
   <si>
     <t xml:space="preserve">ALERT_735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
   </si>
   <si>
     <t xml:space="preserve">moreequal</t>
@@ -1808,9 +1799,6 @@
   </si>
   <si>
     <t xml:space="preserve">["10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adfs_nguyen.vincent</t>
   </si>
   <si>
     <t xml:space="preserve">5f50f6ccaabaf90062ab0049</t>
@@ -1929,9 +1917,6 @@
   </si>
   <si>
     <t xml:space="preserve">["ldap_CN=LE LEVIER Aurélien,OU=Siege,OU=Utilisateur,DC=matmut,DC=fr"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adfs_lelevier.aurelien</t>
   </si>
   <si>
     <t xml:space="preserve">637395a3def0bfd60151d472</t>
@@ -2982,7 +2967,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="Q2:Q38 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3182,7 +3167,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="Q2:Q38 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3446,11 +3431,26 @@
   </sheetPr>
   <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="181.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="296.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.17"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -3668,28 +3668,28 @@
         <v>459</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>455</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>459</v>
@@ -3712,10 +3712,10 @@
         <v>457</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>456</v>
@@ -3730,26 +3730,26 @@
         <v>455</v>
       </c>
       <c r="AM2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN2" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AN2" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>459</v>
@@ -3764,7 +3764,7 @@
         <v>100</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,33 +3772,33 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>459</v>
@@ -3807,25 +3807,25 @@
         <v>303</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="T3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="AB3" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3836,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>0</v>
@@ -3851,32 +3851,32 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AN3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="AU3" s="1" t="n">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>100</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3906,10 +3906,10 @@
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>459</v>
@@ -3925,28 +3925,28 @@
         <v>459</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="T4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>459</v>
@@ -3966,14 +3966,14 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="AJ4" s="1" t="n">
         <v>0</v>
       </c>
@@ -3981,32 +3981,32 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AN4" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AN4" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="AU4" s="1" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C5" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4036,10 +4036,10 @@
         <v>300</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>459</v>
@@ -4055,28 +4055,28 @@
         <v>459</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>459</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>459</v>
@@ -4096,14 +4096,14 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="AJ5" s="1" t="n">
         <v>0</v>
       </c>
@@ -4111,32 +4111,32 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AN5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="AN5" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AQ5" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="AR5" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU5" s="1" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>100</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,33 +4156,33 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>459</v>
@@ -4191,25 +4191,25 @@
         <v>303</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="T6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="AB6" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4220,13 +4220,13 @@
         <v>1</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AJ6" s="1" t="n">
         <v>0</v>
@@ -4235,29 +4235,29 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AN6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="AS6" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>459</v>
@@ -4276,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="BB6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BC6" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="BD6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4303,11 +4303,11 @@
         <v>7200</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="J7" s="1" t="s">
         <v>459</v>
       </c>
@@ -4319,34 +4319,34 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>459</v>
@@ -4366,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>2</v>
@@ -4381,32 +4381,32 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN7" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AN7" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="AU7" s="1" t="n">
         <v>0</v>
@@ -4422,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,7 +4436,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4446,10 +4446,10 @@
         <v>3600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>459</v>
@@ -4468,28 +4468,28 @@
         <v>459</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>459</v>
@@ -4509,47 +4509,47 @@
         <v>1</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AN8" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AN8" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="AR8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU8" s="1" t="n">
         <v>0</v>
@@ -4565,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,23 +4576,23 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>459</v>
@@ -4611,28 +4611,28 @@
         <v>459</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>459</v>
@@ -4652,16 +4652,16 @@
         <v>1</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AJ9" s="1" t="n">
         <v>1</v>
@@ -4670,32 +4670,32 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AN9" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU9" s="1" t="n">
         <v>0</v>
@@ -4711,10 +4711,10 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,7 +4722,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4732,10 +4732,10 @@
         <v>3600</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>459</v>
@@ -4748,34 +4748,34 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>459</v>
@@ -4795,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ10" s="1" t="n">
         <v>1</v>
@@ -4810,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AN10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4823,10 +4823,10 @@
         <v>171</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>459</v>
@@ -4851,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,92 +4862,92 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="U11" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="AB11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AM11" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="AN11" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4957,10 +4957,10 @@
         <v>171</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>459</v>
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +4996,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5006,10 +5006,10 @@
         <v>43200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>459</v>
@@ -5019,34 +5019,34 @@
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>576</v>
+        <v>303</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="W12" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>459</v>
@@ -5066,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ12" s="1" t="n">
         <v>12</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AN12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5094,10 +5094,10 @@
         <v>171</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>459</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,26 +5133,26 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>459</v>
@@ -5168,28 +5168,28 @@
         <v>459</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>576</v>
+        <v>303</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="T13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>459</v>
@@ -5209,16 +5209,16 @@
         <v>1</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AJ13" s="1" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AU13" s="1" t="n">
         <v>0</v>
@@ -5243,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5254,7 +5254,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5264,10 +5264,10 @@
         <v>7200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>459</v>
@@ -5280,34 +5280,34 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>459</v>
@@ -5327,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>2</v>
@@ -5342,32 +5342,32 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM14" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN14" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AN14" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="AR14" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AU14" s="1" t="n">
         <v>0</v>
@@ -5383,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5397,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5407,10 +5407,10 @@
         <v>7200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>459</v>
@@ -5423,34 +5423,34 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>459</v>
@@ -5470,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ15" s="1" t="n">
         <v>2</v>
@@ -5485,32 +5485,32 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AM15" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN15" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AN15" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="AR15" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AU15" s="1" t="n">
         <v>0</v>
@@ -5526,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5540,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5550,10 +5550,10 @@
         <v>7200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>459</v>
@@ -5566,34 +5566,34 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>459</v>
@@ -5613,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ16" s="1" t="n">
         <v>2</v>
@@ -5628,32 +5628,32 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM16" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AM16" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="AN16" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AU16" s="1" t="n">
         <v>0</v>
@@ -5669,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,23 +5680,23 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C17" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>459</v>
@@ -5709,34 +5709,34 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>459</v>
@@ -5756,50 +5756,50 @@
         <v>1</v>
       </c>
       <c r="AE17" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AN17" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP17" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AJ17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="AN17" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="AQ17" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AU17" s="1" t="n">
         <v>1</v>
@@ -5815,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,7 +5826,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5836,10 +5836,10 @@
         <v>3600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>459</v>
@@ -5855,31 +5855,31 @@
         <v>460</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>459</v>
@@ -5899,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ18" s="1" t="n">
         <v>1</v>
@@ -5914,32 +5914,32 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AM18" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AN18" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AN18" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="AR18" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU18" s="1" t="n">
         <v>0</v>
@@ -5955,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5966,7 +5966,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5976,10 +5976,10 @@
         <v>3600</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>459</v>
@@ -5992,34 +5992,34 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>459</v>
@@ -6039,47 +6039,47 @@
         <v>0</v>
       </c>
       <c r="AE19" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AN19" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AN19" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="AR19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU19" s="1" t="n">
         <v>0</v>
@@ -6095,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,23 +6106,23 @@
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C20" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>459</v>
@@ -6135,34 +6135,34 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>459</v>
@@ -6182,50 +6182,50 @@
         <v>1</v>
       </c>
       <c r="AE20" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AN20" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="AF20" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AJ20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="AN20" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="AR20" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AU20" s="1" t="n">
         <v>1</v>
@@ -6241,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,23 +6252,23 @@
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>459</v>
@@ -6281,34 +6281,34 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>459</v>
@@ -6328,50 +6328,50 @@
         <v>1</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AN21" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="AJ21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AN21" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AR21" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AU21" s="1" t="n">
         <v>1</v>
@@ -6387,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6398,60 +6398,60 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C22" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K22" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K22" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="P22" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>459</v>
@@ -6471,28 +6471,28 @@
         <v>1</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI22" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AM22" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="AJ22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="AN22" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6502,10 +6502,10 @@
         <v>171</v>
       </c>
       <c r="AP22" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="AR22" s="1" t="s">
         <v>459</v>
@@ -6530,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,23 +6544,23 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>459</v>
@@ -6570,34 +6570,34 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="X23" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>459</v>
@@ -6617,50 +6617,50 @@
         <v>1</v>
       </c>
       <c r="AE23" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AJ23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AM23" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AN23" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="AS23" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AG23" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="AJ23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="AM23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="AN23" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="AU23" s="1" t="n">
         <v>0</v>
@@ -6676,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,7 +6690,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6700,10 +6700,10 @@
         <v>3600</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>459</v>
@@ -6713,34 +6713,34 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R24" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>459</v>
@@ -6760,13 +6760,13 @@
         <v>1</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ24" s="1" t="n">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="AM24" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="AN24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6788,10 +6788,10 @@
         <v>171</v>
       </c>
       <c r="AP24" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="AR24" s="1" t="s">
         <v>459</v>
@@ -6816,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,7 +6827,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6837,10 +6837,10 @@
         <v>3600</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>459</v>
@@ -6850,34 +6850,34 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R25" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>459</v>
@@ -6897,13 +6897,13 @@
         <v>1</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ25" s="1" t="n">
         <v>1</v>
@@ -6912,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="AM25" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="AN25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6925,10 +6925,10 @@
         <v>171</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="AR25" s="1" t="s">
         <v>459</v>
@@ -6953,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6964,23 +6964,23 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C26" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>459</v>
@@ -6993,34 +6993,34 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>459</v>
@@ -7040,28 +7040,28 @@
         <v>1</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI26" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AM26" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="AJ26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="AN26" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7071,10 +7071,10 @@
         <v>171</v>
       </c>
       <c r="AP26" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="AQ26" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="AR26" s="1" t="s">
         <v>459</v>
@@ -7099,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,23 +7113,23 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C27" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>459</v>
@@ -7142,34 +7142,34 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U27" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="X27" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>459</v>
@@ -7189,16 +7189,16 @@
         <v>1</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AJ27" s="1" t="n">
         <v>0</v>
@@ -7207,23 +7207,23 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AN27" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AR27" s="1" t="s">
         <v>459</v>
@@ -7248,13 +7248,13 @@
         <v>0</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,63 +7262,63 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C28" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K28" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K28" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="P28" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>459</v>
@@ -7338,41 +7338,41 @@
         <v>1</v>
       </c>
       <c r="AE28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AJ28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AN28" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="AJ28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AN28" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AQ28" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="AR28" s="1" t="s">
         <v>459</v>
@@ -7397,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BD28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,7 +7411,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C29" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7421,10 +7421,10 @@
         <v>3600</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>459</v>
@@ -7434,34 +7434,34 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>459</v>
@@ -7481,47 +7481,47 @@
         <v>1</v>
       </c>
       <c r="AE29" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN29" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP29" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="AN29" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="AQ29" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="AU29" s="1" t="n">
         <v>0</v>
@@ -7537,13 +7537,13 @@
         <v>0</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,23 +7551,23 @@
         <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>459</v>
@@ -7583,34 +7583,34 @@
         <v>459</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R30" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U30" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>459</v>
@@ -7624,50 +7624,50 @@
         <v>1</v>
       </c>
       <c r="AE30" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="AN30" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP30" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="AF30" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="AJ30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="AN30" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>720</v>
-      </c>
       <c r="AQ30" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AU30" s="1" t="n">
         <v>0</v>
@@ -7683,16 +7683,16 @@
         <v>1</v>
       </c>
       <c r="AZ30" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,7 +7700,7 @@
         <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C31" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7710,47 +7710,47 @@
         <v>900</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K31" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K31" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="P31" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>459</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>459</v>
@@ -7770,47 +7770,47 @@
         <v>1</v>
       </c>
       <c r="AE31" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AN31" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT31" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="AN31" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="AU31" s="1" t="n">
         <v>0</v>
@@ -7826,10 +7826,10 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,23 +7837,23 @@
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>459</v>
@@ -7863,34 +7863,34 @@
         <v>1</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R32" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>459</v>
@@ -7910,50 +7910,50 @@
         <v>1</v>
       </c>
       <c r="AE32" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="AJ32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="AN32" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="AF32" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="AG32" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI32" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="AJ32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="AM32" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="AN32" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO32" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP32" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="AQ32" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="AR32" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AS32" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AU32" s="1" t="n">
         <v>1</v>
@@ -7969,13 +7969,13 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7983,7 +7983,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C33" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7993,10 +7993,10 @@
         <v>3600</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>459</v>
@@ -8006,34 +8006,34 @@
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R33" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>459</v>
@@ -8053,47 +8053,47 @@
         <v>1</v>
       </c>
       <c r="AE33" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AN33" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="AF33" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AG33" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="AN33" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO33" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP33" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="AQ33" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="AR33" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="AU33" s="1" t="n">
         <v>0</v>
@@ -8109,13 +8109,13 @@
         <v>0</v>
       </c>
       <c r="BB33" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,23 +8123,23 @@
         <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C34" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>459</v>
@@ -8155,34 +8155,34 @@
         <v>459</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R34" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U34" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>756</v>
-      </c>
       <c r="Z34" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>459</v>
@@ -8196,28 +8196,28 @@
         <v>1</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AI34" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="AJ34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AM34" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="AJ34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="AM34" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="AN34" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8227,10 +8227,10 @@
         <v>171</v>
       </c>
       <c r="AP34" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="AQ34" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="AR34" s="1" t="s">
         <v>459</v>
@@ -8255,16 +8255,16 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BB34" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8272,7 +8272,7 @@
         <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8282,10 +8282,10 @@
         <v>3600</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>459</v>
@@ -8295,34 +8295,34 @@
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R35" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>459</v>
@@ -8342,13 +8342,13 @@
         <v>1</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AJ35" s="1" t="n">
         <v>1</v>
@@ -8357,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="AL35" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AM35" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="AM35" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="AN35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8370,10 +8370,10 @@
         <v>171</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="AR35" s="1" t="s">
         <v>459</v>
@@ -8398,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,23 +8409,23 @@
         <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>459</v>
@@ -8441,91 +8441,91 @@
         <v>459</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R36" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="Y36" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AJ36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AN36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="AR36" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT36" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI36" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="AJ36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AM36" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="AN36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO36" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP36" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AQ36" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AR36" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AS36" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="AU36" s="1" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="AY36" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="BB36" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8558,23 +8558,23 @@
         <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>459</v>
@@ -8590,28 +8590,28 @@
         <v>459</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R37" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U37" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="X37" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>459</v>
@@ -8631,50 +8631,50 @@
         <v>1</v>
       </c>
       <c r="AE37" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AJ37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="AN37" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP37" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="AF37" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI37" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AJ37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="AM37" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AN37" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO37" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP37" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="AQ37" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AU37" s="1" t="n">
         <v>0</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="BB37" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8701,23 +8701,23 @@
         <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>459</v>
@@ -8733,91 +8733,91 @@
         <v>459</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="R38" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="X38" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="W38" s="1" t="s">
+      <c r="Y38" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="AJ38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="AN38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="AR38" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="AS38" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT38" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AI38" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="AJ38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="AM38" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="AN38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO38" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AP38" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="AQ38" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="AR38" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="AS38" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AT38" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="AU38" s="1" t="n">
         <v>0</v>
@@ -8833,16 +8833,16 @@
         <v>0</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="BB38" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8864,7 +8864,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="Q2:Q38 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9173,7 +9173,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="Q2:Q38 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9382,7 +9382,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="1" sqref="Q2:Q38 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9654,7 +9654,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="Q2:Q38 F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10034,7 +10034,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+      <selection pane="topLeft" activeCell="F44" activeCellId="1" sqref="Q2:Q38 F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10428,7 +10428,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="Q2:Q38 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11147,7 +11147,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="Q2:Q38 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11707,8 +11707,8 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE19" activeCellId="0" sqref="AE19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE19" activeCellId="1" sqref="Q2:Q38 AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/lp_tenant_importer_v2/samples/core_config.xlsx
+++ b/lp_tenant_importer_v2/samples/core_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Repo" sheetId="1" state="visible" r:id="rId3"/>
@@ -2967,7 +2967,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="Q2:Q38 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3166,8 +3166,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="Q2:Q38 B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3431,8 +3431,8 @@
   </sheetPr>
   <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:Q38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3450,6 +3450,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="54.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8864,7 +8865,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="Q2:Q38 G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9173,7 +9174,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="Q2:Q38 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9382,7 +9383,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="1" sqref="Q2:Q38 I18"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9654,7 +9655,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="Q2:Q38 F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10034,7 +10035,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="1" sqref="Q2:Q38 F44"/>
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10428,7 +10429,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="Q2:Q38 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11147,7 +11148,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="Q2:Q38 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11708,7 +11709,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE19" activeCellId="1" sqref="Q2:Q38 AE19"/>
+      <selection pane="topLeft" activeCell="AE19" activeCellId="0" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/lp_tenant_importer_v2/samples/core_config.xlsx
+++ b/lp_tenant_importer_v2/samples/core_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Repo" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="793">
   <si>
     <t xml:space="preserve">repo_number</t>
   </si>
@@ -1424,9 +1424,6 @@
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">5bf3e54d03a0f32ee1e1ebc7</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{"threshold_value": 2, "notify_email": true, "template_file": "alert_5bf3e54d03a0f32ee1e1ebc7_KF2WSY3LKNUWO3RAFUQEC3TOOVWGC5DJN5XHGIDJNVYG64TUMFXHIZLT.tmp", "email_template": "Service : QuickSign / signature Electronique&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;Le nombre d'annulation semble important sur la dernière heure. Vérifier l'état des services QuickSign&lt;/div&gt;", "email_emails": ["dujardin.nicolas@matmut.fr", "capron.romain@matmut.fr"], "threshold_option": "hour", "raw_emails": ["dujardin.nicolas@matmut.fr", "capron.romain@matmut.fr"], "type": "email", "subject": "Quicksign - Signature Electronique - Nombre d'annulations important"}]</t>
   </si>
   <si>
@@ -1478,9 +1475,6 @@
     <t xml:space="preserve">15000</t>
   </si>
   <si>
-    <t xml:space="preserve">5a4607e4d8aaa474216cb123</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{"threshold_value": null, "notify_email": true, "template_file": "alert_5a4607e4d8aaa474216cb123_IFWGK4TUMUQFOU2TMFXHIZKPMNUWC3TF.tmp", "email_template": "Temps de réponses anormals sur WSSanteOciane&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;{% for row in rows %}&lt;/div&gt;&lt;div&gt;&amp;nbsp; {{row.device_name}}&amp;nbsp; :&amp;nbsp; {{row.TpsRep}}&lt;/div&gt;&lt;div&gt;{% endfor%}&lt;/div&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;", "email_emails": ["pfoh.stephan@matmut.fr"], "threshold_option": null, "raw_emails": ["pfoh.stephan@matmut.fr"], "type": "email", "subject": "Latence WSSanteOciane"}]</t>
   </si>
   <si>
@@ -1598,9 +1592,6 @@
     <t xml:space="preserve">["10.109.234.1:5504/Repo-core-secu-verbose"]</t>
   </si>
   <si>
-    <t xml:space="preserve">5df8af7f03a0f351b1487c93</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSATKPIREUMSKDIFKEST2OEBDVET2VKBCSAVBR'.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le groupe&amp;nbsp;&lt;font color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.group}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&amp;nbsp;a été modifié par&amp;nbsp;&lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.Modificateur}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&amp;nbsp;en réalisant l'action&amp;nbsp;&lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.action}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&amp;nbsp;sur l'utilisateur&amp;nbsp;&lt;b style=\"font-style: italic;\"&gt;&lt;font color=\"#3366ff\"&gt;{{row.Utilisateur}}&lt;/font&gt;&lt;/b&gt;.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - ACTIVE DIRECTORY - MODIFICATION GROUPE T1", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
   </si>
   <si>
@@ -1719,9 +1710,6 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a61fb4103a0f34af015fad6</t>
   </si>
   <si>
     <t xml:space="preserve">[{"template_file": "alert_5a61fb4103a0f34af015fad6_JRIF6TDPM5IG62LOOQQEY2LDMVXHGZJAIV4HA2LSPEQFG5DBOR2XG===.tmp", "notify_email": false, "email_template": "&lt;style type=\"text/css\"&gt;\n\t.alert-table{\n\t\tborder: 1px solid #eee;\n\t\tmargin: 0px;\n\t\tpadding: 0px;\t\t\n\t}\n\t.alert-table-th{\n\t\ttext-align: left;\n\t\tborder-bottom: 2px solid #eee;\n\t\tpadding: 5px;\n\t\tcolor: #ffffff;\n\t\tbackground-color: #646883;\n\t\tfont-family: helvetica;\n\t\tfont-size: 16px;\n\t}\n\t.alert-table-td{\n\t\tborder-left: 1px solid #eee;\n\t\ttext-align: left;\n\t\tborder-bottom: 1px solid #eee;\n\t\tpadding: 5px;\n\t\tfont-family: helvetica;\n\t\tfont-size: 15px;\n\t}\n\t.even{\n\t\tbackground:#f6f6f8;\n\t}\n\n\t.odd{\n\t\tbackground:#ffffff;\n\t}\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t&lt;tbody&gt;&lt;tr&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Event Time&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Object&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;License Expires in&lt;/th&gt;\n\t&lt;/tr&gt;\n\n\t&lt;tr&gt;\n\t\t&lt;td colspan=\"4\"&gt;\n\t\t\t{% for row in rows %}\n\t\t\t&lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t\t\t\t&lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts | datetime}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.object}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.days_remaining}}&lt;/td&gt;\n\t\t\t\t&lt;/tr&gt;\n\t\t\t&lt;/tbody&gt;&lt;/table&gt;\n\t\t\t{% endfor %}\n\t\t&lt;/td&gt;\n\t&lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "email_emails": [], "threshold": {}, "type": "email", "subject": "LP_LogPoint License Expiry Status"}, {"threshold_value": null, "protocol": "UDP", "severity": 4, "facility": 14, "port": 514, "threshold_option": null, "notify_syslog": true, "split_rows": true, "server": "127.0.0.1", "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_object: {{row.object}}; incident_day: {{row.days_remaining}}; incident_criteria: {{description}}.\n{% endfor %}"}]</t>
@@ -1799,9 +1787,6 @@
   </si>
   <si>
     <t xml:space="preserve">["10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f50f6ccaabaf90062ab0049</t>
   </si>
   <si>
     <t xml:space="preserve">[{"type": "email", "template_file": "alert_5f50f6ccaabaf90062ab0049_b'INLEKLJSGAZDALJRGQ3TE==='.tmp", "notify_email": true, "email_emails": ["nguyen.vincent@matmut.fr"], "email_template": "Veuillez vérifier les appareils générant un event id 5829&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;Requête : event_id=58229 | chart count() by device_name&amp;nbsp;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERT] Event ID 5829 - CVE-2020-1472", "raw_emails": ["nguyen.vincent@matmut.fr"]}]</t>
@@ -1919,9 +1904,6 @@
     <t xml:space="preserve">["ldap_CN=LE LEVIER Aurélien,OU=Siege,OU=Utilisateur,DC=matmut,DC=fr"]</t>
   </si>
   <si>
-    <t xml:space="preserve">637395a3def0bfd60151d472</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_MATMUT - ACTIVE DIRECTORY - MODIFICATION GROUPE T1.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car un groupe privilégié T1 a été modifié.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser les modifications en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "MATMUT - ACTIVE DIRECTORY - MODIFICATION GROUPE T1", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
   </si>
   <si>
@@ -2195,9 +2177,6 @@
   </si>
   <si>
     <t xml:space="preserve">["adfs_lelevier.aurelien"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">645276595ee2cee2f3439998</t>
   </si>
   <si>
     <t xml:space="preserve">[{"type": "email", "template_file": "alert_645276595ee2cee2f3439998_MATMUT - WAF F5 - TMUI RCE BIG-IP.tmp", "notify_email": false, "email_emails": [], "email_template": "&lt;div&gt;&lt;font face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;font face=\"arial\"&gt;Vous recevez cette alerte car un attaquant tente d'exploiter la CVE-2020-5902 sur BIG-IP&lt;/font&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;Veuillez prendre les mesures nécessaires pour remédier à cette menace.&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "MATMUT - WAF F5 - TMUI RCE BIG-IP", "raw_emails": [], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
@@ -3166,7 +3145,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3431,26 +3410,28 @@
   </sheetPr>
   <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W13" activeCellId="0" sqref="W13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V41" activeCellId="0" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="181.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="296.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="54.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="181.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="296.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="50.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="54.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,14 +3664,12 @@
       <c r="U2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>459</v>
@@ -3713,10 +3692,10 @@
         <v>457</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>456</v>
@@ -3731,26 +3710,26 @@
         <v>455</v>
       </c>
       <c r="AM2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN2" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="AN2" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>459</v>
@@ -3765,7 +3744,7 @@
         <v>100</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,33 +3752,33 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>459</v>
@@ -3814,19 +3793,17 @@
         <v>462</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="AB3" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3837,13 +3814,13 @@
         <v>1</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>0</v>
@@ -3852,32 +3829,32 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AM3" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AN3" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="AN3" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="AU3" s="1" t="n">
         <v>0</v>
@@ -3889,7 +3866,7 @@
         <v>100</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -3907,10 +3884,10 @@
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>459</v>
@@ -3935,19 +3912,17 @@
         <v>462</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>464</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
         <v>459</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>459</v>
@@ -3967,14 +3942,14 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="AJ4" s="1" t="n">
         <v>0</v>
       </c>
@@ -3982,32 +3957,32 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AN4" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="AN4" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="AU4" s="1" t="n">
         <v>0</v>
@@ -4019,7 +3994,7 @@
         <v>100</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C5" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4037,10 +4012,10 @@
         <v>300</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>459</v>
@@ -4065,19 +4040,17 @@
         <v>462</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>464</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
         <v>459</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>459</v>
@@ -4097,14 +4070,14 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="AJ5" s="1" t="n">
         <v>0</v>
       </c>
@@ -4112,32 +4085,32 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AM5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AN5" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AN5" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="AR5" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AU5" s="1" t="n">
         <v>0</v>
@@ -4149,7 +4122,7 @@
         <v>100</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,33 +4130,33 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>459</v>
@@ -4198,19 +4171,17 @@
         <v>462</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="AB6" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -4221,13 +4192,13 @@
         <v>1</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AJ6" s="1" t="n">
         <v>0</v>
@@ -4236,29 +4207,29 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN6" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="AN6" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AQ6" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="AS6" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>459</v>
@@ -4277,16 +4248,16 @@
         <v>0</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="BD6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C7" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4304,10 +4275,10 @@
         <v>7200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>459</v>
@@ -4320,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>459</v>
@@ -4338,16 +4309,14 @@
         <v>326</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>459</v>
@@ -4367,13 +4336,13 @@
         <v>1</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>2</v>
@@ -4382,32 +4351,32 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AM7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AN7" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="AN7" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="AU7" s="1" t="n">
         <v>0</v>
@@ -4423,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4406,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C8" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4447,10 +4416,10 @@
         <v>3600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>459</v>
@@ -4475,22 +4444,20 @@
         <v>461</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>459</v>
@@ -4510,47 +4477,47 @@
         <v>1</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AF8" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN8" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AN8" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="AR8" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU8" s="1" t="n">
         <v>0</v>
@@ -4566,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,23 +4544,23 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C9" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>459</v>
@@ -4618,22 +4585,20 @@
         <v>461</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>459</v>
@@ -4653,16 +4618,16 @@
         <v>1</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AJ9" s="1" t="n">
         <v>1</v>
@@ -4671,32 +4636,32 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AN9" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU9" s="1" t="n">
         <v>0</v>
@@ -4712,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,7 +4688,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4733,10 +4698,10 @@
         <v>3600</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>459</v>
@@ -4749,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>459</v>
@@ -4767,16 +4732,14 @@
         <v>326</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="X10" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>459</v>
@@ -4796,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ10" s="1" t="n">
         <v>1</v>
@@ -4811,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AN10" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4824,10 +4787,10 @@
         <v>171</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>459</v>
@@ -4852,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,26 +4826,26 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C11" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>459</v>
@@ -4892,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>459</v>
@@ -4904,51 +4867,49 @@
         <v>461</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="AB11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AM11" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AB11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="AJ11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="AN11" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -4958,10 +4919,10 @@
         <v>171</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>459</v>
@@ -4986,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,7 +4958,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5007,10 +4968,10 @@
         <v>43200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>459</v>
@@ -5020,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>459</v>
@@ -5032,22 +4993,20 @@
         <v>461</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>459</v>
@@ -5067,13 +5026,13 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ12" s="1" t="n">
         <v>12</v>
@@ -5082,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AN12" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -5095,10 +5054,10 @@
         <v>171</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>459</v>
@@ -5123,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,26 +5093,26 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C13" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>459</v>
@@ -5181,54 +5140,52 @@
         <v>0</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="X13" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="AJ13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="AU13" s="1" t="n">
         <v>0</v>
@@ -5244,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,7 +5212,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C14" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5265,10 +5222,10 @@
         <v>7200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>459</v>
@@ -5281,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>303</v>
@@ -5299,16 +5256,14 @@
         <v>326</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>459</v>
@@ -5328,13 +5283,13 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>2</v>
@@ -5343,32 +5298,32 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN14" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AU14" s="1" t="n">
         <v>0</v>
@@ -5384,13 +5339,13 @@
         <v>0</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,7 +5353,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C15" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5408,10 +5363,10 @@
         <v>7200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>459</v>
@@ -5424,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>303</v>
@@ -5442,16 +5397,14 @@
         <v>326</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="V15" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="X15" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>459</v>
@@ -5471,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ15" s="1" t="n">
         <v>2</v>
@@ -5486,32 +5439,32 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN15" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AU15" s="1" t="n">
         <v>0</v>
@@ -5527,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5494,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C16" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5551,10 +5504,10 @@
         <v>7200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>459</v>
@@ -5567,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>303</v>
@@ -5585,16 +5538,14 @@
         <v>326</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>459</v>
@@ -5614,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ16" s="1" t="n">
         <v>2</v>
@@ -5629,32 +5580,32 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AN16" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP16" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="AM16" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AN16" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="AQ16" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AU16" s="1" t="n">
         <v>0</v>
@@ -5670,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5681,23 +5632,23 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C17" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>459</v>
@@ -5710,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>303</v>
@@ -5728,16 +5679,14 @@
         <v>326</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>459</v>
@@ -5757,50 +5706,50 @@
         <v>1</v>
       </c>
       <c r="AE17" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AN17" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AJ17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AN17" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="AR17" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AU17" s="1" t="n">
         <v>1</v>
@@ -5816,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,7 +5776,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C18" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5837,10 +5786,10 @@
         <v>3600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>459</v>
@@ -5856,7 +5805,7 @@
         <v>460</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>303</v>
@@ -5865,22 +5814,20 @@
         <v>461</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>459</v>
@@ -5900,13 +5847,13 @@
         <v>0</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ18" s="1" t="n">
         <v>1</v>
@@ -5915,32 +5862,32 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AN18" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU18" s="1" t="n">
         <v>0</v>
@@ -5956,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5914,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C19" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -5977,10 +5924,10 @@
         <v>3600</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>459</v>
@@ -5993,10 +5940,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>303</v>
@@ -6005,22 +5952,20 @@
         <v>461</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>326</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>459</v>
@@ -6040,13 +5985,13 @@
         <v>0</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ19" s="1" t="n">
         <v>1</v>
@@ -6055,32 +6000,32 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN19" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AM19" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AN19" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="AR19" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU19" s="1" t="n">
         <v>0</v>
@@ -6096,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,23 +6052,23 @@
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C20" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>459</v>
@@ -6136,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>303</v>
@@ -6154,16 +6099,14 @@
         <v>326</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>459</v>
@@ -6183,50 +6126,50 @@
         <v>1</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI20" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AN20" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AJ20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AN20" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="AR20" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AU20" s="1" t="n">
         <v>1</v>
@@ -6242,10 +6185,10 @@
         <v>0</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,23 +6196,23 @@
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C21" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>459</v>
@@ -6282,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>303</v>
@@ -6300,16 +6243,14 @@
         <v>326</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>459</v>
@@ -6329,50 +6270,50 @@
         <v>1</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN21" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AR21" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AJ21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AN21" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AS21" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AU21" s="1" t="n">
         <v>1</v>
@@ -6388,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,33 +6340,33 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C22" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K22" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K22" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>459</v>
@@ -6434,7 +6375,7 @@
         <v>303</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>462</v>
@@ -6443,16 +6384,14 @@
         <v>326</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>459</v>
@@ -6472,16 +6411,16 @@
         <v>1</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AJ22" s="1" t="n">
         <v>0</v>
@@ -6490,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AM22" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="AN22" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6503,10 +6442,10 @@
         <v>171</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AR22" s="1" t="s">
         <v>459</v>
@@ -6531,13 +6470,13 @@
         <v>0</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BD22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,23 +6484,23 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C23" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>459</v>
@@ -6571,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>459</v>
@@ -6589,16 +6528,14 @@
         <v>326</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>459</v>
@@ -6618,50 +6555,50 @@
         <v>1</v>
       </c>
       <c r="AE23" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AJ23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AN23" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP23" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AQ23" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AT23" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AJ23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="AN23" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="AU23" s="1" t="n">
         <v>0</v>
@@ -6677,13 +6614,13 @@
         <v>0</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BD23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,7 +6628,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6701,10 +6638,10 @@
         <v>3600</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>459</v>
@@ -6714,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>459</v>
@@ -6732,16 +6669,14 @@
         <v>326</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>459</v>
@@ -6761,13 +6696,13 @@
         <v>1</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ24" s="1" t="n">
         <v>1</v>
@@ -6776,10 +6711,10 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AN24" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6789,10 +6724,10 @@
         <v>171</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AR24" s="1" t="s">
         <v>459</v>
@@ -6817,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,7 +6763,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6838,10 +6773,10 @@
         <v>3600</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>459</v>
@@ -6851,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>459</v>
@@ -6869,16 +6804,14 @@
         <v>326</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>459</v>
@@ -6898,13 +6831,13 @@
         <v>1</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ25" s="1" t="n">
         <v>1</v>
@@ -6913,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AN25" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -6926,10 +6859,10 @@
         <v>171</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AR25" s="1" t="s">
         <v>459</v>
@@ -6954,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6965,23 +6898,23 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C26" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>459</v>
@@ -6994,16 +6927,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>303</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>462</v>
@@ -7012,16 +6945,14 @@
         <v>326</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>681</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>459</v>
@@ -7041,16 +6972,16 @@
         <v>1</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AJ26" s="1" t="n">
         <v>0</v>
@@ -7059,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AM26" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="AN26" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7072,10 +7003,10 @@
         <v>171</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AR26" s="1" t="s">
         <v>459</v>
@@ -7100,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BD26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7114,23 +7045,23 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C27" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>600</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>459</v>
@@ -7143,10 +7074,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>303</v>
@@ -7161,16 +7092,14 @@
         <v>326</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="V27" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="X27" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>459</v>
@@ -7190,16 +7119,16 @@
         <v>1</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="AJ27" s="1" t="n">
         <v>0</v>
@@ -7208,23 +7137,23 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AN27" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="AR27" s="1" t="s">
         <v>459</v>
@@ -7249,13 +7178,13 @@
         <v>0</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BD27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,23 +7192,23 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C28" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>459</v>
@@ -7292,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>303</v>
@@ -7310,16 +7239,14 @@
         <v>326</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>681</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>459</v>
@@ -7339,16 +7266,16 @@
         <v>1</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="AJ28" s="1" t="n">
         <v>0</v>
@@ -7357,23 +7284,23 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="AN28" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="AN28" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="AQ28" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="AR28" s="1" t="s">
         <v>459</v>
@@ -7398,13 +7325,13 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BD28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,7 +7339,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C29" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7422,10 +7349,10 @@
         <v>3600</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>459</v>
@@ -7435,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>459</v>
@@ -7453,16 +7380,14 @@
         <v>326</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>459</v>
@@ -7482,47 +7407,47 @@
         <v>1</v>
       </c>
       <c r="AE29" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AN29" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT29" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="AF29" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AJ29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="AN29" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="AU29" s="1" t="n">
         <v>0</v>
@@ -7538,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,23 +7477,23 @@
         <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C30" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>459</v>
@@ -7596,22 +7521,20 @@
         <v>326</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>459</v>
@@ -7625,50 +7548,50 @@
         <v>1</v>
       </c>
       <c r="AE30" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AN30" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AR30" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="AF30" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AJ30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="AN30" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="AQ30" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="AS30" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="AU30" s="1" t="n">
         <v>0</v>
@@ -7684,16 +7607,16 @@
         <v>1</v>
       </c>
       <c r="AZ30" s="1" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7701,7 +7624,7 @@
         <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C31" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7711,20 +7634,20 @@
         <v>900</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K31" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K31" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>459</v>
@@ -7742,16 +7665,14 @@
         <v>326</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
         <v>459</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>459</v>
@@ -7771,13 +7692,13 @@
         <v>1</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ31" s="1" t="n">
         <v>0</v>
@@ -7786,32 +7707,32 @@
         <v>0</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="AN31" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="AU31" s="1" t="n">
         <v>0</v>
@@ -7827,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7838,23 +7759,23 @@
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C32" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>86400</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>459</v>
@@ -7864,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>459</v>
@@ -7882,16 +7803,14 @@
         <v>326</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>459</v>
@@ -7911,16 +7830,16 @@
         <v>1</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="AJ32" s="1" t="n">
         <v>0</v>
@@ -7929,32 +7848,32 @@
         <v>0</v>
       </c>
       <c r="AL32" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="AN32" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="AM32" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="AN32" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO32" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP32" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="AQ32" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="AR32" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AS32" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AU32" s="1" t="n">
         <v>1</v>
@@ -7970,13 +7889,13 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7984,7 +7903,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C33" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -7994,10 +7913,10 @@
         <v>3600</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>459</v>
@@ -8007,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>459</v>
@@ -8025,16 +7944,14 @@
         <v>326</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>459</v>
@@ -8054,13 +7971,13 @@
         <v>1</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ33" s="1" t="n">
         <v>1</v>
@@ -8069,32 +7986,32 @@
         <v>0</v>
       </c>
       <c r="AL33" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AN33" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT33" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="AN33" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO33" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP33" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="AQ33" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="AR33" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS33" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="AU33" s="1" t="n">
         <v>0</v>
@@ -8110,13 +8027,13 @@
         <v>0</v>
       </c>
       <c r="BB33" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8124,23 +8041,23 @@
         <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C34" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>459</v>
@@ -8168,22 +8085,20 @@
         <v>326</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>459</v>
@@ -8197,16 +8112,16 @@
         <v>1</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="AJ34" s="1" t="n">
         <v>0</v>
@@ -8215,10 +8130,10 @@
         <v>0</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="AM34" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="AN34" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8228,10 +8143,10 @@
         <v>171</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="AR34" s="1" t="s">
         <v>459</v>
@@ -8256,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="BB34" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,7 +8188,7 @@
         <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8283,10 +8198,10 @@
         <v>3600</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>459</v>
@@ -8296,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>459</v>
@@ -8314,16 +8229,14 @@
         <v>326</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>459</v>
@@ -8343,13 +8256,13 @@
         <v>1</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AJ35" s="1" t="n">
         <v>1</v>
@@ -8358,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="AM35" s="1" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="AN35" s="3" t="b">
         <f aca="false">TRUE()</f>
@@ -8371,10 +8284,10 @@
         <v>171</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="AQ35" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="AR35" s="1" t="s">
         <v>459</v>
@@ -8399,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8410,23 +8323,23 @@
         <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C36" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>459</v>
@@ -8454,79 +8367,77 @@
         <v>326</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AJ36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="AN36" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP36" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AQ36" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT36" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI36" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="AJ36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="AM36" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="AN36" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO36" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP36" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AQ36" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="AR36" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AS36" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="AU36" s="1" t="n">
         <v>0</v>
@@ -8542,16 +8453,16 @@
         <v>0</v>
       </c>
       <c r="AY36" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="BB36" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8559,23 +8470,23 @@
         <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C37" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>3600</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>459</v>
@@ -8603,16 +8514,14 @@
         <v>326</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>459</v>
@@ -8632,50 +8541,50 @@
         <v>1</v>
       </c>
       <c r="AE37" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AJ37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AN37" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AR37" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="AF37" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI37" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AJ37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="AM37" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AN37" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO37" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP37" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AQ37" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="AR37" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="AS37" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AU37" s="1" t="n">
         <v>0</v>
@@ -8691,10 +8600,10 @@
         <v>0</v>
       </c>
       <c r="BB37" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8702,23 +8611,23 @@
         <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C38" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>300</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>459</v>
@@ -8746,79 +8655,77 @@
         <v>326</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AJ38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AM38" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="W38" s="1" t="s">
+      <c r="AN38" s="3" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT38" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AD38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI38" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="AJ38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AM38" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="AN38" s="3" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AO38" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP38" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="AQ38" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="AR38" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="AS38" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT38" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="AU38" s="1" t="n">
         <v>0</v>
@@ -8834,16 +8741,16 @@
         <v>0</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="BB38" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
